--- a/config/OTFS.xlsx
+++ b/config/OTFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github_Textremo\Phy_Joint_VBPIC\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFC699E-9C45-4ED9-995D-4D8E49552352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DA733F-8712-47FC-A32B-19F4DC60284F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -110,26 +110,20 @@
     <t>toy-p4</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>sig_len</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,15 +146,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -471,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -482,7 +475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -493,7 +486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -504,21 +497,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -529,7 +519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -539,11 +529,8 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -554,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -565,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -575,11 +562,8 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -589,11 +573,8 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -604,7 +585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -615,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -626,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -690,6 +671,17 @@
       </c>
       <c r="C21">
         <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/config/OTFS.xlsx
+++ b/config/OTFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github_Textremo\Phy_Joint_VBPIC\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DA733F-8712-47FC-A32B-19F4DC60284F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314E5D34-529E-4585-A2D2-FABBEAE4EDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>sig_len</t>
+  </si>
+  <si>
+    <t>data_len</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,9 +681,20 @@
         <v>27</v>
       </c>
       <c r="B22">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>49</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>40</v>
       </c>
     </row>

--- a/config/OTFS.xlsx
+++ b/config/OTFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github_Textremo\Phy_Joint_VBPIC\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314E5D34-529E-4585-A2D2-FABBEAE4EDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E34BD-DFFB-4323-8D08-E2E5AA3818AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>[1e3,1e3,1e3,5e4,5e4]</t>
   </si>
   <si>
-    <t>N_frames</t>
-  </si>
-  <si>
     <t>M_mod</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>data_len</t>
+  </si>
+  <si>
+    <t>N_frams</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -524,7 +524,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -557,24 +557,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -612,7 +612,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>64</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>49</v>

--- a/config/OTFS.xlsx
+++ b/config/OTFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github_Textremo\Phy_Joint_VBPIC\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E34BD-DFFB-4323-8D08-E2E5AA3818AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFB4D90-89BE-405E-97C6-C8559530FEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-72" yWindow="-13068" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMBED" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>N_frams</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -157,6 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,12 +721,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B055A9B-D1C9-4DCA-B7F0-389C12C15A8C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/OTFS.xlsx
+++ b/config/OTFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github_Textremo\Phy_Joint_VBPIC\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFB4D90-89BE-405E-97C6-C8559530FEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50699AB-3D61-4B22-B880-83F6AE71C334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-72" yWindow="-13068" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,7 +724,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B17" sqref="A16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,7 +854,7 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -862,7 +862,7 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>64</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">

--- a/config/OTFS.xlsx
+++ b/config/OTFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github_Textremo\Phy_Joint_VBPIC\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50699AB-3D61-4B22-B880-83F6AE71C334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E7163C-B7A9-40FF-BA55-DB926D190A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-72" yWindow="-13068" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>toy</t>
+  </si>
+  <si>
+    <t>otfs-sbl</t>
   </si>
 </sst>
 </file>
@@ -721,160 +724,211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B055A9B-D1C9-4DCA-B7F0-389C12C15A8C}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="A16:B17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16">
+        <v>63</v>
+      </c>
+      <c r="C16">
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B17">
+        <v>63</v>
+      </c>
+      <c r="C17">
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
